--- a/biology/Zoologie/Holcosus_festivus/Holcosus_festivus.xlsx
+++ b/biology/Zoologie/Holcosus_festivus/Holcosus_festivus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Holcosus festivus est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Holcosus festivus est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre entre 100 et 1 000 m d'altitude[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre entre 100 et 1 000 m d'altitude :
 en Colombie ;
 au Panama ;
 au Costa Rica ;
@@ -551,9 +565,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (9 avril 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (9 avril 2013) :
 Holcosus festivus edwardsii (Bocourt, 1873)
 Holcosus festivus festivus (Lichtenstein, 1856)
 Holcosus festivus occidentalis (Taylor, 1956)</t>
@@ -584,7 +600,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bocourt, 1873 : Note sur l'Ameiva edwardsii. Annales des sciences naturelles. Zoologie et biologie animale, ser. 5, vol. 17, n. 17, p. 1-2 (texte intégral).
 Lichtenstein, 1856 : Nomenclator reptilium et amphibiorum Musei Zoologici Berolinensis. Namenverzeichniss der in der zoologischen Sammlung der Königlichen Universität zu Berlin aufgestellten Arten von Reptilien und Amphibien nach ihren Ordnungen, Familien und Gattungen. Königliche Akademie der Wissenschaften, Berlin, p. 1-48 (texte intégral).
